--- a/Etapa 1 e 2/yakult-final.xlsx
+++ b/Etapa 1 e 2/yakult-final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonioamaralegydiomartins/Desktop/Antonio amaral/GitHub - Pessoal/INSPER/CDados_Projeto1/Etapa 1 e 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonioamaralegydiomartins/Desktop/Antônio/GitHub - Pessoal/INSPER/CDados_Projeto1/Etapa 1 e 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D6FE2-7111-2246-A32C-4B7819A07FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD9D24-2050-A24A-AE4A-EEAB4AE5E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{BA78AF97-7254-4B43-9492-82641F42BF94}"/>
   </bookViews>
@@ -7970,10 +7970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25497A3B-48D7-42F4-A832-BD00C4DEEB03}">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7990,14 +7990,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8005,55 +8007,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>502</v>
+      <c r="A6" s="8" t="s">
+        <v>503</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>503</v>
+      <c r="A7" s="6" t="s">
+        <v>504</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8061,7 +8063,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -8069,15 +8071,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8085,39 +8087,39 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8125,39 +8127,39 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>518</v>
+      <c r="A22" s="8" t="s">
+        <v>519</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>519</v>
+      <c r="A23" s="6" t="s">
+        <v>520</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8165,31 +8167,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>522</v>
+      <c r="A26" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>523</v>
+      <c r="A27" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8197,7 +8199,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8205,7 +8207,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8213,7 +8215,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8221,7 +8223,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8229,39 +8231,39 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>531</v>
+      <c r="A35" s="8" t="s">
+        <v>532</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>532</v>
+      <c r="A36" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8269,7 +8271,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8277,55 +8279,55 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8333,31 +8335,31 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>542</v>
+      <c r="A46" s="8" t="s">
+        <v>543</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>544</v>
+      <c r="A48" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8365,7 +8367,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8373,15 +8375,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8389,15 +8391,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8405,7 +8407,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8413,7 +8415,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8421,31 +8423,31 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8453,15 +8455,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8469,7 +8471,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8477,55 +8479,55 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>561</v>
+      <c r="A65" s="8" t="s">
+        <v>562</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>562</v>
+      <c r="A66" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>563</v>
+      <c r="A67" s="8" t="s">
+        <v>564</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>564</v>
+      <c r="A68" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8533,15 +8535,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8549,7 +8551,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8557,15 +8559,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8573,7 +8575,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8581,79 +8583,79 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>573</v>
+      <c r="A77" s="8" t="s">
+        <v>574</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>574</v>
+      <c r="A78" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>576</v>
+      <c r="A80" s="8" t="s">
+        <v>577</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>577</v>
+      <c r="A81" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>578</v>
+      <c r="A82" s="8" t="s">
+        <v>579</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
-        <v>579</v>
+      <c r="A83" s="6" t="s">
+        <v>580</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>580</v>
+      <c r="A84" s="8" t="s">
+        <v>581</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>581</v>
+      <c r="A85" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -8661,47 +8663,47 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>583</v>
+      <c r="A87" s="8" t="s">
+        <v>584</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>584</v>
+      <c r="A88" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>587</v>
+      <c r="A91" s="8" t="s">
+        <v>588</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -8709,15 +8711,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
-        <v>589</v>
+      <c r="A93" s="6" t="s">
+        <v>590</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8725,15 +8727,15 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -8741,55 +8743,55 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>593</v>
+      <c r="A97" s="8" t="s">
+        <v>594</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>594</v>
+      <c r="A98" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>595</v>
+      <c r="A99" s="8" t="s">
+        <v>596</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>596</v>
+      <c r="A100" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>597</v>
+      <c r="A101" s="8" t="s">
+        <v>598</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
-        <v>598</v>
+      <c r="A102" s="6" t="s">
+        <v>599</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -8797,15 +8799,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8813,47 +8815,47 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>605</v>
+      <c r="A109" s="8" t="s">
+        <v>606</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>606</v>
+      <c r="A110" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -8861,7 +8863,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -8869,7 +8871,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -8877,87 +8879,87 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
-        <v>611</v>
+      <c r="A115" s="8" t="s">
+        <v>612</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>612</v>
+      <c r="A116" s="6" t="s">
+        <v>613</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
-        <v>613</v>
+      <c r="A117" s="8" t="s">
+        <v>614</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
-        <v>614</v>
+      <c r="A118" s="6" t="s">
+        <v>615</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>619</v>
+      <c r="A123" s="8" t="s">
+        <v>620</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -8965,7 +8967,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -8973,15 +8975,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
-        <v>622</v>
+      <c r="A126" s="6" t="s">
+        <v>623</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -8989,15 +8991,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -9005,7 +9007,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -9013,7 +9015,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -9021,7 +9023,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -9029,7 +9031,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -9037,23 +9039,23 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>630</v>
+      <c r="A134" s="8" t="s">
+        <v>631</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>631</v>
+      <c r="A135" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -9061,47 +9063,47 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>634</v>
+      <c r="A138" s="8" t="s">
+        <v>635</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>635</v>
+      <c r="A139" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -9109,55 +9111,55 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
-        <v>640</v>
+      <c r="A144" s="8" t="s">
+        <v>641</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>641</v>
+      <c r="A145" s="6" t="s">
+        <v>642</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
-        <v>642</v>
+      <c r="A146" s="8" t="s">
+        <v>643</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
-        <v>643</v>
+      <c r="A147" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -9165,15 +9167,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -9181,79 +9183,79 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>649</v>
+      <c r="A153" s="8" t="s">
+        <v>650</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>650</v>
+      <c r="A154" s="6" t="s">
+        <v>651</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>655</v>
+      <c r="A159" s="8" t="s">
+        <v>656</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>656</v>
+      <c r="A160" s="6" t="s">
+        <v>657</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -9261,7 +9263,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -9269,31 +9271,31 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -9301,31 +9303,31 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -9333,23 +9335,23 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -9357,7 +9359,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -9365,15 +9367,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -9381,7 +9383,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -9389,7 +9391,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -9397,31 +9399,31 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
-        <v>676</v>
+      <c r="A180" s="8" t="s">
+        <v>677</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="8" t="s">
-        <v>677</v>
+      <c r="A181" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -9429,31 +9431,31 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -9461,31 +9463,31 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -9493,15 +9495,15 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -9509,7 +9511,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -9517,47 +9519,47 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
-        <v>692</v>
+      <c r="A196" s="8" t="s">
+        <v>693</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="8" t="s">
-        <v>693</v>
+      <c r="A197" s="6" t="s">
+        <v>694</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -9565,31 +9567,31 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
-        <v>696</v>
+      <c r="A200" s="8" t="s">
+        <v>697</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="8" t="s">
-        <v>697</v>
+      <c r="A201" s="6" t="s">
+        <v>698</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -9597,7 +9599,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -9605,7 +9607,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -9613,23 +9615,23 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -9637,7 +9639,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -9645,7 +9647,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -9653,23 +9655,23 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -9677,7 +9679,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -9685,15 +9687,15 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -9701,15 +9703,15 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -9717,7 +9719,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -9725,39 +9727,39 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -9765,7 +9767,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -9773,31 +9775,31 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
-        <v>722</v>
+      <c r="A226" s="8" t="s">
+        <v>723</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
-        <v>723</v>
+      <c r="A227" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -9805,15 +9807,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -9821,15 +9823,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -9837,7 +9839,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -9845,7 +9847,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -9853,15 +9855,15 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -9869,7 +9871,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -9877,23 +9879,23 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
-        <v>735</v>
+      <c r="A239" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
-        <v>736</v>
+      <c r="A240" s="6" t="s">
+        <v>737</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -9901,7 +9903,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -9909,79 +9911,79 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
-        <v>741</v>
+      <c r="A245" s="8" t="s">
+        <v>742</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
-        <v>742</v>
+      <c r="A246" s="6" t="s">
+        <v>743</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="s">
-        <v>743</v>
+      <c r="A247" s="8" t="s">
+        <v>744</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="8" t="s">
-        <v>744</v>
+      <c r="A248" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="6" t="s">
-        <v>746</v>
+      <c r="A250" s="8" t="s">
+        <v>747</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="8" t="s">
-        <v>747</v>
+      <c r="A251" s="6" t="s">
+        <v>748</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -9989,23 +9991,23 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="6" t="s">
-        <v>750</v>
+      <c r="A254" s="8" t="s">
+        <v>751</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -10013,23 +10015,23 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="8" t="s">
-        <v>752</v>
+      <c r="A256" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -10037,7 +10039,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -10045,15 +10047,15 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -10061,15 +10063,15 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -10077,7 +10079,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -10085,7 +10087,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -10093,7 +10095,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -10101,7 +10103,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -10109,23 +10111,23 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
-        <v>764</v>
+      <c r="A268" s="8" t="s">
+        <v>765</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="8" t="s">
-        <v>765</v>
+      <c r="A269" s="6" t="s">
+        <v>766</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -10133,31 +10135,31 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="s">
-        <v>769</v>
+      <c r="A273" s="8" t="s">
+        <v>770</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -10165,31 +10167,31 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="8" t="s">
-        <v>773</v>
+      <c r="A277" s="6" t="s">
+        <v>774</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -10197,23 +10199,23 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -10221,31 +10223,31 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="s">
-        <v>778</v>
+      <c r="A282" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="8" t="s">
-        <v>779</v>
+      <c r="A283" s="6" t="s">
+        <v>780</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -10253,15 +10255,15 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -10269,87 +10271,87 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
-        <v>786</v>
+      <c r="A290" s="8" t="s">
+        <v>787</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="8" t="s">
-        <v>787</v>
+      <c r="A291" s="6" t="s">
+        <v>788</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
-        <v>788</v>
+      <c r="A292" s="8" t="s">
+        <v>789</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="8" t="s">
-        <v>789</v>
+      <c r="A293" s="6" t="s">
+        <v>790</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="s">
-        <v>790</v>
+      <c r="A294" s="8" t="s">
+        <v>791</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="8" t="s">
-        <v>791</v>
+      <c r="A295" s="6" t="s">
+        <v>792</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="6" t="s">
-        <v>792</v>
+      <c r="A296" s="8" t="s">
+        <v>793</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="8" t="s">
-        <v>793</v>
+      <c r="A297" s="6" t="s">
+        <v>794</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -10357,7 +10359,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -10365,7 +10367,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -10373,31 +10375,31 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
-        <v>798</v>
+      <c r="A302" s="8" t="s">
+        <v>799</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="8" t="s">
-        <v>799</v>
+      <c r="A303" s="6" t="s">
+        <v>800</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -10405,15 +10407,15 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -10421,7 +10423,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -10429,7 +10431,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -10437,15 +10439,15 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -10453,15 +10455,15 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -10469,15 +10471,15 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -10485,15 +10487,15 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -10501,15 +10503,15 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -10517,7 +10519,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -10525,89 +10527,81 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B322">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://t.co/7o1sfvkhvm" xr:uid="{831DEB7D-60C0-4E35-BC90-66D8A6516EF2}"/>
-    <hyperlink ref="A23" r:id="rId2" display="https://t.co/ynneqryo6m" xr:uid="{025EC449-9EA0-4C28-9D65-22A69ACE3746}"/>
-    <hyperlink ref="A27" r:id="rId3" display="https://t.co/v8pnbl3hrv" xr:uid="{A05A8442-15FA-4CFA-99A9-D841E3B7C83B}"/>
-    <hyperlink ref="A36" r:id="rId4" display="https://t.co/a3zni6vujt" xr:uid="{EA1D0BD6-C85F-4E5E-9631-791470A6623C}"/>
-    <hyperlink ref="A47" r:id="rId5" display="https://t.co/5dy6ggezqr'" xr:uid="{349368C9-5CBE-4CDC-9F1F-4204C3CF5F56}"/>
-    <hyperlink ref="A48" r:id="rId6" display="https://t.co/yfmpuy7e4q'" xr:uid="{426F7D07-55E7-4FF7-BF3F-0CBF524706A4}"/>
-    <hyperlink ref="A66" r:id="rId7" display="https://t.co/nnggc5vy0v'" xr:uid="{27A91FD0-7122-429A-AA04-784B52DF0B58}"/>
-    <hyperlink ref="A68" r:id="rId8" display="https://t.co/zp3tioyaag'" xr:uid="{16EBB06B-F4A2-4E7C-9AE9-F6304953D729}"/>
-    <hyperlink ref="A78" r:id="rId9" display="https://t.co/byhhr4yfm5'" xr:uid="{FCA62D11-3638-4F9A-B95C-99C4A05F722A}"/>
-    <hyperlink ref="A81" r:id="rId10" display="https://t.co/fmbvefpwd8'" xr:uid="{5455914F-BC89-451E-B4E7-5BB81DC8A76F}"/>
-    <hyperlink ref="A83" r:id="rId11" display="https://t.co/w282dkvijt'" xr:uid="{2FFF05E8-1004-4E94-A75F-6A06344D75B4}"/>
-    <hyperlink ref="A85" r:id="rId12" display="https://t.co/uis0yw23sg'" xr:uid="{A9C7544B-A893-4B83-B416-5DBC23FC731E}"/>
-    <hyperlink ref="A88" r:id="rId13" display="https://t.co/mopuz4g3if'" xr:uid="{286C2981-BD59-43CD-9974-7ACE7DC738CC}"/>
-    <hyperlink ref="A92" r:id="rId14" display="https://t.co/v8pnbl3hrv'" xr:uid="{4EC15795-2E2C-4ACD-A52B-46DCD7C1A3D5}"/>
-    <hyperlink ref="A93" r:id="rId15" display="https://t.co/t3t1au317g'" xr:uid="{EA2B43C8-1A75-48AF-8D64-CACDEC8DEFB0}"/>
-    <hyperlink ref="A98" r:id="rId16" display="https://t.co/uufdhqh97z'" xr:uid="{D80B2361-7622-4F87-BE49-17C918CDABFB}"/>
-    <hyperlink ref="A100" r:id="rId17" display="https://t.co/2dtrdvmvbc'" xr:uid="{DB092DAE-C67A-4AE8-B470-1964AC1034AD}"/>
-    <hyperlink ref="A102" r:id="rId18" display="https://t.co/xwqe13e0io'" xr:uid="{5B10B0DD-C5C6-4FFD-BDD1-BE1CB86B8202}"/>
-    <hyperlink ref="A110" r:id="rId19" display="https://t.co/snizufcnkf'" xr:uid="{71824B82-2ED6-482C-AB54-65F2381A0B3A}"/>
-    <hyperlink ref="A116" r:id="rId20" display="https://t.co/cuvgzu6mhm'" xr:uid="{8EDD6974-09F0-47D4-80BD-056E87EDBBD4}"/>
-    <hyperlink ref="A118" r:id="rId21" display="https://t.co/m3npkon0ne'" xr:uid="{643D8C2D-F5EC-4029-A707-1939CB8B18C4}"/>
-    <hyperlink ref="A124" r:id="rId22" display="https://t.co/a3zni6vujt'" xr:uid="{D6C1E597-1FC3-4913-9AF4-0D59D9ED999D}"/>
-    <hyperlink ref="A125" r:id="rId23" display="https://t.co/sgv9zpktjo'" xr:uid="{176215FA-5F47-4379-83D5-3DE9990A18B7}"/>
-    <hyperlink ref="A126" r:id="rId24" display="https://t.co/6zkklc0jud'" xr:uid="{AF38DA67-4863-49FC-9170-4DE7935982AA}"/>
-    <hyperlink ref="A135" r:id="rId25" display="https://t.co/zggzthgxez'" xr:uid="{7D618F05-A905-47FF-A07E-039E1FA44E09}"/>
-    <hyperlink ref="A139" r:id="rId26" display="https://t.co/rs0eplf6ki'" xr:uid="{1E7F5BA1-3BD1-48B8-B295-A1FF7F293DE2}"/>
-    <hyperlink ref="A145" r:id="rId27" display="https://t.co/t3t1au317g'" xr:uid="{68910968-95A8-4C41-B9EF-2896FDE8BF83}"/>
-    <hyperlink ref="A147" r:id="rId28" display="https://t.co/t0lrh0ie3i'" xr:uid="{7AC25EA7-C137-414E-A407-0DA191934CF7}"/>
-    <hyperlink ref="A154" r:id="rId29" display="https://t.co/eef4ujb7nn'" xr:uid="{ECC3B087-9AFD-4B57-8B49-ADCAD7B34B5D}"/>
-    <hyperlink ref="A160" r:id="rId30" display="https://t.co/qheu1gmqav'" xr:uid="{76994081-96AA-4624-883A-A87BC51A0BEC}"/>
-    <hyperlink ref="A181" r:id="rId31" display="https://t.co/2wbyatnmhx'" xr:uid="{0A3DC977-7D38-409A-AA61-47B45A1119B0}"/>
-    <hyperlink ref="A197" r:id="rId32" display="https://t.co/yoymy1xt2y'" xr:uid="{EACD0496-C1CA-4B77-A648-6AEE3553B2BF}"/>
-    <hyperlink ref="A201" r:id="rId33" display="https://t.co/ehgqlwuuoc'" xr:uid="{88394F98-E170-48F4-8226-0D3DEAADD664}"/>
-    <hyperlink ref="A227" r:id="rId34" display="https://t.co/ojwri68jmd'" xr:uid="{E2A24BCE-C480-4280-B443-D4C62D4F7DF9}"/>
-    <hyperlink ref="A240" r:id="rId35" display="https://t.co/ei046cvhyj'" xr:uid="{E1E45308-A5A5-49A5-A331-4D73DAB68B40}"/>
-    <hyperlink ref="A246" r:id="rId36" display="https://t.co/15r6wlqpie'" xr:uid="{633160E7-962C-4DB2-BF18-D1D411DB1F86}"/>
-    <hyperlink ref="A248" r:id="rId37" display="https://t.co/nzakecd68x'" xr:uid="{FF524CD9-1FF9-4611-9F2C-82593BBD5E20}"/>
-    <hyperlink ref="A251" r:id="rId38" display="https://t.co/vizp4tnhen'" xr:uid="{83EC4EC3-25D8-4210-A28E-F16629E8EBC4}"/>
-    <hyperlink ref="A255" r:id="rId39" display="https://t.co/yxsisvqvdy'" xr:uid="{256FCF1D-6DA0-4892-AA4D-A36F0F78FECB}"/>
-    <hyperlink ref="A256" r:id="rId40" display="https://t.co/2gouofcedi'" xr:uid="{D45BC7C9-60BC-4F5A-B044-366953913DCC}"/>
-    <hyperlink ref="A269" r:id="rId41" display="https://t.co/dfh9swvhi2'" xr:uid="{B277D120-EDFC-457B-9C51-21034E734FD1}"/>
-    <hyperlink ref="A274" r:id="rId42" display="https://t.co/dyyhwndg7g'" xr:uid="{3CA848FB-CB9C-4B55-A30D-B3C741F25D33}"/>
-    <hyperlink ref="A275" r:id="rId43" display="https://t.co/yg2ovoppvi'" xr:uid="{77EC1541-37D8-4853-87F3-18301571030B}"/>
-    <hyperlink ref="A276" r:id="rId44" display="https://t.co/vgqbmk37oj'" xr:uid="{2F94B232-BBF9-485D-861F-45F26F6E1777}"/>
-    <hyperlink ref="A277" r:id="rId45" display="https://t.co/dbsv6hhklz'" xr:uid="{D91EE7F0-B283-454F-8327-4F9156FDE148}"/>
-    <hyperlink ref="A283" r:id="rId46" display="https://t.co/akwualolnw'" xr:uid="{4E791717-27EA-48DF-A13B-00262A095482}"/>
-    <hyperlink ref="A291" r:id="rId47" display="https://t.co/eppapaus5s'" xr:uid="{F0E7AC8F-D007-4E5F-A454-F05C04F72360}"/>
-    <hyperlink ref="A293" r:id="rId48" display="https://t.co/qfohzub4t8'" xr:uid="{9471A6FD-58AC-4A2C-A515-18D41CB2AFA2}"/>
-    <hyperlink ref="A295" r:id="rId49" display="https://t.co/ynneqryo6m'" xr:uid="{9B05447D-A53D-4DF4-8189-E9022091FC7D}"/>
-    <hyperlink ref="A297" r:id="rId50" display="https://t.co/vrdbbr0uek'" xr:uid="{CFA760A9-FF29-47F6-8956-CC6EE374C814}"/>
-    <hyperlink ref="A303" r:id="rId51" display="https://t.co/3popmfct4i'" xr:uid="{A2093074-43CB-487E-9297-48DC9AAEA389}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://t.co/7o1sfvkhvm" xr:uid="{831DEB7D-60C0-4E35-BC90-66D8A6516EF2}"/>
+    <hyperlink ref="A22" r:id="rId2" display="https://t.co/ynneqryo6m" xr:uid="{025EC449-9EA0-4C28-9D65-22A69ACE3746}"/>
+    <hyperlink ref="A26" r:id="rId3" display="https://t.co/v8pnbl3hrv" xr:uid="{A05A8442-15FA-4CFA-99A9-D841E3B7C83B}"/>
+    <hyperlink ref="A35" r:id="rId4" display="https://t.co/a3zni6vujt" xr:uid="{EA1D0BD6-C85F-4E5E-9631-791470A6623C}"/>
+    <hyperlink ref="A46" r:id="rId5" display="https://t.co/5dy6ggezqr'" xr:uid="{349368C9-5CBE-4CDC-9F1F-4204C3CF5F56}"/>
+    <hyperlink ref="A47" r:id="rId6" display="https://t.co/yfmpuy7e4q'" xr:uid="{426F7D07-55E7-4FF7-BF3F-0CBF524706A4}"/>
+    <hyperlink ref="A65" r:id="rId7" display="https://t.co/nnggc5vy0v'" xr:uid="{27A91FD0-7122-429A-AA04-784B52DF0B58}"/>
+    <hyperlink ref="A67" r:id="rId8" display="https://t.co/zp3tioyaag'" xr:uid="{16EBB06B-F4A2-4E7C-9AE9-F6304953D729}"/>
+    <hyperlink ref="A77" r:id="rId9" display="https://t.co/byhhr4yfm5'" xr:uid="{FCA62D11-3638-4F9A-B95C-99C4A05F722A}"/>
+    <hyperlink ref="A80" r:id="rId10" display="https://t.co/fmbvefpwd8'" xr:uid="{5455914F-BC89-451E-B4E7-5BB81DC8A76F}"/>
+    <hyperlink ref="A82" r:id="rId11" display="https://t.co/w282dkvijt'" xr:uid="{2FFF05E8-1004-4E94-A75F-6A06344D75B4}"/>
+    <hyperlink ref="A84" r:id="rId12" display="https://t.co/uis0yw23sg'" xr:uid="{A9C7544B-A893-4B83-B416-5DBC23FC731E}"/>
+    <hyperlink ref="A87" r:id="rId13" display="https://t.co/mopuz4g3if'" xr:uid="{286C2981-BD59-43CD-9974-7ACE7DC738CC}"/>
+    <hyperlink ref="A91" r:id="rId14" display="https://t.co/v8pnbl3hrv'" xr:uid="{4EC15795-2E2C-4ACD-A52B-46DCD7C1A3D5}"/>
+    <hyperlink ref="A92" r:id="rId15" display="https://t.co/t3t1au317g'" xr:uid="{EA2B43C8-1A75-48AF-8D64-CACDEC8DEFB0}"/>
+    <hyperlink ref="A97" r:id="rId16" display="https://t.co/uufdhqh97z'" xr:uid="{D80B2361-7622-4F87-BE49-17C918CDABFB}"/>
+    <hyperlink ref="A99" r:id="rId17" display="https://t.co/2dtrdvmvbc'" xr:uid="{DB092DAE-C67A-4AE8-B470-1964AC1034AD}"/>
+    <hyperlink ref="A101" r:id="rId18" display="https://t.co/xwqe13e0io'" xr:uid="{5B10B0DD-C5C6-4FFD-BDD1-BE1CB86B8202}"/>
+    <hyperlink ref="A109" r:id="rId19" display="https://t.co/snizufcnkf'" xr:uid="{71824B82-2ED6-482C-AB54-65F2381A0B3A}"/>
+    <hyperlink ref="A115" r:id="rId20" display="https://t.co/cuvgzu6mhm'" xr:uid="{8EDD6974-09F0-47D4-80BD-056E87EDBBD4}"/>
+    <hyperlink ref="A117" r:id="rId21" display="https://t.co/m3npkon0ne'" xr:uid="{643D8C2D-F5EC-4029-A707-1939CB8B18C4}"/>
+    <hyperlink ref="A123" r:id="rId22" display="https://t.co/a3zni6vujt'" xr:uid="{D6C1E597-1FC3-4913-9AF4-0D59D9ED999D}"/>
+    <hyperlink ref="A124" r:id="rId23" display="https://t.co/sgv9zpktjo'" xr:uid="{176215FA-5F47-4379-83D5-3DE9990A18B7}"/>
+    <hyperlink ref="A125" r:id="rId24" display="https://t.co/6zkklc0jud'" xr:uid="{AF38DA67-4863-49FC-9170-4DE7935982AA}"/>
+    <hyperlink ref="A134" r:id="rId25" display="https://t.co/zggzthgxez'" xr:uid="{7D618F05-A905-47FF-A07E-039E1FA44E09}"/>
+    <hyperlink ref="A138" r:id="rId26" display="https://t.co/rs0eplf6ki'" xr:uid="{1E7F5BA1-3BD1-48B8-B295-A1FF7F293DE2}"/>
+    <hyperlink ref="A144" r:id="rId27" display="https://t.co/t3t1au317g'" xr:uid="{68910968-95A8-4C41-B9EF-2896FDE8BF83}"/>
+    <hyperlink ref="A146" r:id="rId28" display="https://t.co/t0lrh0ie3i'" xr:uid="{7AC25EA7-C137-414E-A407-0DA191934CF7}"/>
+    <hyperlink ref="A153" r:id="rId29" display="https://t.co/eef4ujb7nn'" xr:uid="{ECC3B087-9AFD-4B57-8B49-ADCAD7B34B5D}"/>
+    <hyperlink ref="A159" r:id="rId30" display="https://t.co/qheu1gmqav'" xr:uid="{76994081-96AA-4624-883A-A87BC51A0BEC}"/>
+    <hyperlink ref="A180" r:id="rId31" display="https://t.co/2wbyatnmhx'" xr:uid="{0A3DC977-7D38-409A-AA61-47B45A1119B0}"/>
+    <hyperlink ref="A196" r:id="rId32" display="https://t.co/yoymy1xt2y'" xr:uid="{EACD0496-C1CA-4B77-A648-6AEE3553B2BF}"/>
+    <hyperlink ref="A200" r:id="rId33" display="https://t.co/ehgqlwuuoc'" xr:uid="{88394F98-E170-48F4-8226-0D3DEAADD664}"/>
+    <hyperlink ref="A226" r:id="rId34" display="https://t.co/ojwri68jmd'" xr:uid="{E2A24BCE-C480-4280-B443-D4C62D4F7DF9}"/>
+    <hyperlink ref="A239" r:id="rId35" display="https://t.co/ei046cvhyj'" xr:uid="{E1E45308-A5A5-49A5-A331-4D73DAB68B40}"/>
+    <hyperlink ref="A245" r:id="rId36" display="https://t.co/15r6wlqpie'" xr:uid="{633160E7-962C-4DB2-BF18-D1D411DB1F86}"/>
+    <hyperlink ref="A247" r:id="rId37" display="https://t.co/nzakecd68x'" xr:uid="{FF524CD9-1FF9-4611-9F2C-82593BBD5E20}"/>
+    <hyperlink ref="A250" r:id="rId38" display="https://t.co/vizp4tnhen'" xr:uid="{83EC4EC3-25D8-4210-A28E-F16629E8EBC4}"/>
+    <hyperlink ref="A254" r:id="rId39" display="https://t.co/yxsisvqvdy'" xr:uid="{256FCF1D-6DA0-4892-AA4D-A36F0F78FECB}"/>
+    <hyperlink ref="A255" r:id="rId40" display="https://t.co/2gouofcedi'" xr:uid="{D45BC7C9-60BC-4F5A-B044-366953913DCC}"/>
+    <hyperlink ref="A268" r:id="rId41" display="https://t.co/dfh9swvhi2'" xr:uid="{B277D120-EDFC-457B-9C51-21034E734FD1}"/>
+    <hyperlink ref="A273" r:id="rId42" display="https://t.co/dyyhwndg7g'" xr:uid="{3CA848FB-CB9C-4B55-A30D-B3C741F25D33}"/>
+    <hyperlink ref="A274" r:id="rId43" display="https://t.co/yg2ovoppvi'" xr:uid="{77EC1541-37D8-4853-87F3-18301571030B}"/>
+    <hyperlink ref="A275" r:id="rId44" display="https://t.co/vgqbmk37oj'" xr:uid="{2F94B232-BBF9-485D-861F-45F26F6E1777}"/>
+    <hyperlink ref="A276" r:id="rId45" display="https://t.co/dbsv6hhklz'" xr:uid="{D91EE7F0-B283-454F-8327-4F9156FDE148}"/>
+    <hyperlink ref="A282" r:id="rId46" display="https://t.co/akwualolnw'" xr:uid="{4E791717-27EA-48DF-A13B-00262A095482}"/>
+    <hyperlink ref="A290" r:id="rId47" display="https://t.co/eppapaus5s'" xr:uid="{F0E7AC8F-D007-4E5F-A454-F05C04F72360}"/>
+    <hyperlink ref="A292" r:id="rId48" display="https://t.co/qfohzub4t8'" xr:uid="{9471A6FD-58AC-4A2C-A515-18D41CB2AFA2}"/>
+    <hyperlink ref="A294" r:id="rId49" display="https://t.co/ynneqryo6m'" xr:uid="{9B05447D-A53D-4DF4-8189-E9022091FC7D}"/>
+    <hyperlink ref="A296" r:id="rId50" display="https://t.co/vrdbbr0uek'" xr:uid="{CFA760A9-FF29-47F6-8956-CC6EE374C814}"/>
+    <hyperlink ref="A302" r:id="rId51" display="https://t.co/3popmfct4i'" xr:uid="{A2093074-43CB-487E-9297-48DC9AAEA389}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
